--- a/data/trans_orig/Q31A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,73</t>
+          <t>17,25; 17,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 19,01</t>
+          <t>17,56; 18,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,66</t>
+          <t>17,0; 17,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,24</t>
+          <t>17,5; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 18,26</t>
+          <t>17,62; 18,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,63</t>
+          <t>17,73; 18,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 19,0</t>
+          <t>17,32; 19,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,7</t>
+          <t>17,64; 18,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,81</t>
+          <t>17,43; 17,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 18,53</t>
+          <t>17,73; 18,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,93</t>
+          <t>17,19; 17,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,64; 18,24</t>
+          <t>17,64; 18,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,88</t>
+          <t>17,32; 17,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,04</t>
+          <t>17,47; 18,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 17,77</t>
+          <t>17,08; 17,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,77</t>
+          <t>16,93; 17,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,1</t>
+          <t>17,99; 19,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 18,93</t>
+          <t>17,89; 18,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,17</t>
+          <t>18,02; 19,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 21,14</t>
+          <t>18,91; 20,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 18,23</t>
+          <t>17,68; 18,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,28</t>
+          <t>17,7; 18,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 18,23</t>
+          <t>17,58; 18,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,8</t>
+          <t>17,82; 18,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,57</t>
+          <t>17,14; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,47</t>
+          <t>16,97; 17,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,43</t>
+          <t>16,8; 17,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,43; 16,98</t>
+          <t>16,43; 16,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,78; 20,58</t>
+          <t>17,83; 20,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,64</t>
+          <t>18,42; 21,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,73; 25,75</t>
+          <t>18,44; 26,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 21,46</t>
+          <t>18,26; 21,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,85</t>
+          <t>17,31; 17,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 18,0</t>
+          <t>17,3; 18,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,5</t>
+          <t>17,21; 18,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,58</t>
+          <t>16,88; 17,54</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,23</t>
+          <t>16,93; 17,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,58</t>
+          <t>17,02; 17,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 17,18</t>
+          <t>16,79; 17,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,43</t>
+          <t>16,83; 17,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 19,49</t>
+          <t>18,28; 19,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,73</t>
+          <t>17,79; 18,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 18,22</t>
+          <t>16,29; 18,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 17,42</t>
+          <t>17,11; 17,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,99</t>
+          <t>17,41; 17,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,56</t>
+          <t>17,18; 17,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,42</t>
+          <t>16,49; 17,43</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,89</t>
+          <t>16,3; 16,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,62</t>
+          <t>16,98; 17,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,11</t>
+          <t>16,58; 17,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,19; 19,46</t>
+          <t>18,22; 19,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,21; 20,88</t>
+          <t>19,22; 20,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 20,47</t>
+          <t>18,87; 20,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 19,05</t>
+          <t>17,98; 19,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,8</t>
+          <t>17,16; 17,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,93; 18,77</t>
+          <t>17,93; 18,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,54; 18,27</t>
+          <t>17,56; 18,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,66</t>
+          <t>17,17; 17,71</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,54; 16,09</t>
+          <t>15,53; 16,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 16,59</t>
+          <t>16,04; 16,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,5</t>
+          <t>16,05; 16,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 17,0</t>
+          <t>16,25; 17,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 18,17</t>
+          <t>17,46; 18,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,27</t>
+          <t>17,68; 19,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,94; 19,44</t>
+          <t>17,92; 19,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 19,42</t>
+          <t>17,6; 19,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,28</t>
+          <t>16,77; 17,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,24</t>
+          <t>17,19; 18,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,17</t>
+          <t>17,22; 18,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,25</t>
+          <t>17,16; 18,38</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,5</t>
+          <t>17,21; 17,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,47 +1579,47 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 17,27</t>
+          <t>16,99; 17,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,1</t>
+          <t>18,47; 19,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,29; 18,95</t>
+          <t>18,32; 19,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,93; 18,64</t>
+          <t>17,03; 18,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,53</t>
+          <t>17,35; 17,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,97</t>
+          <t>17,69; 17,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,46; 17,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,67</t>
+          <t>17,07; 17,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q31A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
